--- a/2022/Symphony/APRIL/25.04.2022/MC Bank Statement April-2022.xlsx
+++ b/2022/Symphony/APRIL/25.04.2022/MC Bank Statement April-2022.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="273">
   <si>
     <t>Date</t>
   </si>
@@ -799,9 +799,6 @@
     <t>Najirpur</t>
   </si>
   <si>
-    <t>CD Sound</t>
-  </si>
-  <si>
     <t>Babu Computer</t>
   </si>
   <si>
@@ -827,9 +824,6 @@
   </si>
   <si>
     <t>Sa=Roktiom Electronics</t>
-  </si>
-  <si>
-    <t>Na=CD Sound</t>
   </si>
   <si>
     <t>18.04.2022</t>
@@ -907,9 +901,6 @@
     <t>Anika Telecom</t>
   </si>
   <si>
-    <t>Symphony  Balance(+)</t>
-  </si>
-  <si>
     <t>B=Moom Telecom</t>
   </si>
   <si>
@@ -920,6 +911,18 @@
   </si>
   <si>
     <t>B=Hiron Moible Zone</t>
+  </si>
+  <si>
+    <t>25.04.2022</t>
+  </si>
+  <si>
+    <t>Symphony  Balance(-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rokeya </t>
+  </si>
+  <si>
+    <t>S=Rokeya Mobile</t>
   </si>
 </sst>
 </file>
@@ -3167,6 +3170,18 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3313,18 +3328,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4014,33 +4017,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="308"/>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
+      <c r="A1" s="312"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="309"/>
-      <c r="B2" s="306" t="s">
+      <c r="A2" s="313"/>
+      <c r="B2" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="309"/>
-      <c r="B3" s="307" t="s">
+      <c r="A3" s="313"/>
+      <c r="B3" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="309"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4061,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="309"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4079,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="309"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4088,7 +4091,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="309"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="26" t="s">
         <v>56</v>
       </c>
@@ -4107,7 +4110,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="309"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="26" t="s">
         <v>57</v>
       </c>
@@ -4126,7 +4129,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="309"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="26" t="s">
         <v>59</v>
       </c>
@@ -4145,7 +4148,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="309"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="26" t="s">
         <v>60</v>
       </c>
@@ -4164,7 +4167,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="309"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="26" t="s">
         <v>61</v>
       </c>
@@ -4183,7 +4186,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="309"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="26" t="s">
         <v>62</v>
       </c>
@@ -4202,7 +4205,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="309"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="26" t="s">
         <v>63</v>
       </c>
@@ -4221,7 +4224,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="309"/>
+      <c r="A14" s="313"/>
       <c r="B14" s="26" t="s">
         <v>64</v>
       </c>
@@ -4240,7 +4243,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="309"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -4259,7 +4262,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="309"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4272,7 +4275,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="309"/>
+      <c r="A17" s="313"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4285,7 +4288,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="309"/>
+      <c r="A18" s="313"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4298,7 +4301,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="309"/>
+      <c r="A19" s="313"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4311,7 +4314,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="309"/>
+      <c r="A20" s="313"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4324,7 +4327,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="309"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4337,7 +4340,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="309"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4350,7 +4353,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="309"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4363,7 +4366,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="309"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4376,7 +4379,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="309"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4389,7 +4392,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="309"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4402,7 +4405,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="309"/>
+      <c r="A27" s="313"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4415,7 +4418,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="309"/>
+      <c r="A28" s="313"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4428,7 +4431,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="309"/>
+      <c r="A29" s="313"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4441,7 +4444,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="309"/>
+      <c r="A30" s="313"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4454,7 +4457,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="309"/>
+      <c r="A31" s="313"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4467,7 +4470,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="309"/>
+      <c r="A32" s="313"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4480,7 +4483,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="309"/>
+      <c r="A33" s="313"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4493,7 +4496,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="309"/>
+      <c r="A34" s="313"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4506,7 +4509,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="309"/>
+      <c r="A35" s="313"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4519,7 +4522,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="309"/>
+      <c r="A36" s="313"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4532,7 +4535,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="309"/>
+      <c r="A37" s="313"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4545,7 +4548,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="309"/>
+      <c r="A38" s="313"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4558,7 +4561,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="309"/>
+      <c r="A39" s="313"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4571,7 +4574,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="309"/>
+      <c r="A40" s="313"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4584,7 +4587,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="309"/>
+      <c r="A41" s="313"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4597,7 +4600,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="309"/>
+      <c r="A42" s="313"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4610,7 +4613,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="309"/>
+      <c r="A43" s="313"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4623,7 +4626,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="309"/>
+      <c r="A44" s="313"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4636,7 +4639,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="309"/>
+      <c r="A45" s="313"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4649,7 +4652,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="309"/>
+      <c r="A46" s="313"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4662,7 +4665,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="309"/>
+      <c r="A47" s="313"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4675,7 +4678,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="309"/>
+      <c r="A48" s="313"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4688,7 +4691,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="309"/>
+      <c r="A49" s="313"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4701,7 +4704,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="309"/>
+      <c r="A50" s="313"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4714,7 +4717,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="309"/>
+      <c r="A51" s="313"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4727,7 +4730,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="309"/>
+      <c r="A52" s="313"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4740,7 +4743,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="309"/>
+      <c r="A53" s="313"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4753,7 +4756,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="309"/>
+      <c r="A54" s="313"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4766,7 +4769,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="309"/>
+      <c r="A55" s="313"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4778,7 +4781,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="309"/>
+      <c r="A56" s="313"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4790,7 +4793,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="309"/>
+      <c r="A57" s="313"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4802,7 +4805,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="309"/>
+      <c r="A58" s="313"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4814,7 +4817,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="309"/>
+      <c r="A59" s="313"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4826,7 +4829,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="309"/>
+      <c r="A60" s="313"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4838,7 +4841,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="309"/>
+      <c r="A61" s="313"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4850,7 +4853,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="309"/>
+      <c r="A62" s="313"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4862,7 +4865,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="309"/>
+      <c r="A63" s="313"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4874,7 +4877,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="309"/>
+      <c r="A64" s="313"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4886,7 +4889,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="309"/>
+      <c r="A65" s="313"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4898,7 +4901,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="309"/>
+      <c r="A66" s="313"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4910,7 +4913,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="309"/>
+      <c r="A67" s="313"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4922,7 +4925,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="309"/>
+      <c r="A68" s="313"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4934,7 +4937,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="309"/>
+      <c r="A69" s="313"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4946,7 +4949,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="309"/>
+      <c r="A70" s="313"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4958,7 +4961,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="309"/>
+      <c r="A71" s="313"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4970,7 +4973,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="309"/>
+      <c r="A72" s="313"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4982,7 +4985,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="309"/>
+      <c r="A73" s="313"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4994,7 +4997,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="309"/>
+      <c r="A74" s="313"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5006,7 +5009,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="309"/>
+      <c r="A75" s="313"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5018,7 +5021,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="309"/>
+      <c r="A76" s="313"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5030,7 +5033,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="309"/>
+      <c r="A77" s="313"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5042,7 +5045,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="309"/>
+      <c r="A78" s="313"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5054,7 +5057,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="309"/>
+      <c r="A79" s="313"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5066,7 +5069,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="309"/>
+      <c r="A80" s="313"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5078,7 +5081,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="309"/>
+      <c r="A81" s="313"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5090,7 +5093,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="309"/>
+      <c r="A82" s="313"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5102,7 +5105,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="309"/>
+      <c r="A83" s="313"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5142,7 +5145,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5159,33 +5162,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="308"/>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
+      <c r="A1" s="312"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="309"/>
-      <c r="B2" s="306" t="s">
+      <c r="A2" s="313"/>
+      <c r="B2" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="309"/>
-      <c r="B3" s="307" t="s">
+      <c r="A3" s="313"/>
+      <c r="B3" s="311" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="309"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5203,7 +5206,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="309"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5221,7 +5224,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="309"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="26"/>
       <c r="C6" s="261"/>
       <c r="D6" s="261"/>
@@ -5233,7 +5236,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="309"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="26" t="s">
         <v>200</v>
       </c>
@@ -5251,7 +5254,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="309"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="26" t="s">
         <v>206</v>
       </c>
@@ -5269,7 +5272,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="309"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="26" t="s">
         <v>212</v>
       </c>
@@ -5287,7 +5290,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="309"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="26" t="s">
         <v>213</v>
       </c>
@@ -5305,7 +5308,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="309"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="26" t="s">
         <v>217</v>
       </c>
@@ -5323,7 +5326,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="309"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="26" t="s">
         <v>218</v>
       </c>
@@ -5341,7 +5344,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="309"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="26" t="s">
         <v>221</v>
       </c>
@@ -5359,7 +5362,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="309"/>
+      <c r="A14" s="313"/>
       <c r="B14" s="26" t="s">
         <v>222</v>
       </c>
@@ -5377,7 +5380,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="309"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="26" t="s">
         <v>224</v>
       </c>
@@ -5395,7 +5398,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="309"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="26" t="s">
         <v>229</v>
       </c>
@@ -5413,9 +5416,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="309"/>
+      <c r="A17" s="313"/>
       <c r="B17" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="261">
         <v>600000</v>
@@ -5431,9 +5434,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="309"/>
+      <c r="A18" s="313"/>
       <c r="B18" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="261">
         <v>0</v>
@@ -5449,9 +5452,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="309"/>
+      <c r="A19" s="313"/>
       <c r="B19" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" s="261">
         <v>0</v>
@@ -5467,9 +5470,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="309"/>
+      <c r="A20" s="313"/>
       <c r="B20" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="261">
         <v>500000</v>
@@ -5485,9 +5488,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="309"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C21" s="261">
         <v>300000</v>
@@ -5503,9 +5506,9 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="309"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C22" s="261">
         <v>1000000</v>
@@ -5521,9 +5524,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="309"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C23" s="261">
         <v>360000</v>
@@ -5539,9 +5542,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="309"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C24" s="261">
         <v>410000</v>
@@ -5557,9 +5560,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="309"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="302" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C25" s="303">
         <v>47000</v>
@@ -5572,14 +5575,14 @@
         <v>68038</v>
       </c>
       <c r="F25" s="301" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="309"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26" s="261">
         <v>0</v>
@@ -5595,9 +5598,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="309"/>
+      <c r="A27" s="313"/>
       <c r="B27" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" s="261">
         <v>0</v>
@@ -5613,9 +5616,9 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="309"/>
+      <c r="A28" s="313"/>
       <c r="B28" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C28" s="261">
         <v>700000</v>
@@ -5630,10 +5633,16 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="309"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="261"/>
+      <c r="A29" s="313"/>
+      <c r="B29" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="261">
+        <v>500000</v>
+      </c>
+      <c r="D29" s="261">
+        <v>500000</v>
+      </c>
       <c r="E29" s="262">
         <f t="shared" si="0"/>
         <v>68038</v>
@@ -5642,7 +5651,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="309"/>
+      <c r="A30" s="313"/>
       <c r="B30" s="26"/>
       <c r="C30" s="261"/>
       <c r="D30" s="261"/>
@@ -5654,7 +5663,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="309"/>
+      <c r="A31" s="313"/>
       <c r="B31" s="26"/>
       <c r="C31" s="261"/>
       <c r="D31" s="261"/>
@@ -5666,7 +5675,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="309"/>
+      <c r="A32" s="313"/>
       <c r="B32" s="26"/>
       <c r="C32" s="261"/>
       <c r="D32" s="261"/>
@@ -5678,7 +5687,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="309"/>
+      <c r="A33" s="313"/>
       <c r="B33" s="26"/>
       <c r="C33" s="261"/>
       <c r="D33" s="263"/>
@@ -5690,7 +5699,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="309"/>
+      <c r="A34" s="313"/>
       <c r="B34" s="26"/>
       <c r="C34" s="261"/>
       <c r="D34" s="261"/>
@@ -5702,7 +5711,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="309"/>
+      <c r="A35" s="313"/>
       <c r="B35" s="26"/>
       <c r="C35" s="261"/>
       <c r="D35" s="261"/>
@@ -5714,7 +5723,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="309"/>
+      <c r="A36" s="313"/>
       <c r="B36" s="26"/>
       <c r="C36" s="261"/>
       <c r="D36" s="261"/>
@@ -5726,7 +5735,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="309"/>
+      <c r="A37" s="313"/>
       <c r="B37" s="26"/>
       <c r="C37" s="261"/>
       <c r="D37" s="261"/>
@@ -5738,7 +5747,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="309"/>
+      <c r="A38" s="313"/>
       <c r="B38" s="26"/>
       <c r="C38" s="261"/>
       <c r="D38" s="261"/>
@@ -5750,7 +5759,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="309"/>
+      <c r="A39" s="313"/>
       <c r="B39" s="26"/>
       <c r="C39" s="261"/>
       <c r="D39" s="261"/>
@@ -5762,7 +5771,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="309"/>
+      <c r="A40" s="313"/>
       <c r="B40" s="26"/>
       <c r="C40" s="261"/>
       <c r="D40" s="261"/>
@@ -5774,7 +5783,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="309"/>
+      <c r="A41" s="313"/>
       <c r="B41" s="26"/>
       <c r="C41" s="261"/>
       <c r="D41" s="261"/>
@@ -5786,7 +5795,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="309"/>
+      <c r="A42" s="313"/>
       <c r="B42" s="26"/>
       <c r="C42" s="261"/>
       <c r="D42" s="261"/>
@@ -5798,7 +5807,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="309"/>
+      <c r="A43" s="313"/>
       <c r="B43" s="26"/>
       <c r="C43" s="261"/>
       <c r="D43" s="261"/>
@@ -5810,7 +5819,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="309"/>
+      <c r="A44" s="313"/>
       <c r="B44" s="26"/>
       <c r="C44" s="261"/>
       <c r="D44" s="261"/>
@@ -5822,7 +5831,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="309"/>
+      <c r="A45" s="313"/>
       <c r="B45" s="26"/>
       <c r="C45" s="261"/>
       <c r="D45" s="261"/>
@@ -5834,7 +5843,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="309"/>
+      <c r="A46" s="313"/>
       <c r="B46" s="26"/>
       <c r="C46" s="261"/>
       <c r="D46" s="261"/>
@@ -5846,7 +5855,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="309"/>
+      <c r="A47" s="313"/>
       <c r="B47" s="26"/>
       <c r="C47" s="261"/>
       <c r="D47" s="261"/>
@@ -5858,7 +5867,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="309"/>
+      <c r="A48" s="313"/>
       <c r="B48" s="26"/>
       <c r="C48" s="261"/>
       <c r="D48" s="261"/>
@@ -5870,7 +5879,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="309"/>
+      <c r="A49" s="313"/>
       <c r="B49" s="26"/>
       <c r="C49" s="261"/>
       <c r="D49" s="261"/>
@@ -5882,7 +5891,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="309"/>
+      <c r="A50" s="313"/>
       <c r="B50" s="26"/>
       <c r="C50" s="261"/>
       <c r="D50" s="261"/>
@@ -5894,7 +5903,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="309"/>
+      <c r="A51" s="313"/>
       <c r="B51" s="26"/>
       <c r="C51" s="261"/>
       <c r="D51" s="261"/>
@@ -5906,7 +5915,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="309"/>
+      <c r="A52" s="313"/>
       <c r="B52" s="26"/>
       <c r="C52" s="261"/>
       <c r="D52" s="261"/>
@@ -5918,7 +5927,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="309"/>
+      <c r="A53" s="313"/>
       <c r="B53" s="26"/>
       <c r="C53" s="261"/>
       <c r="D53" s="261"/>
@@ -5930,7 +5939,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="309"/>
+      <c r="A54" s="313"/>
       <c r="B54" s="26"/>
       <c r="C54" s="261"/>
       <c r="D54" s="261"/>
@@ -5942,7 +5951,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="309"/>
+      <c r="A55" s="313"/>
       <c r="B55" s="26"/>
       <c r="C55" s="261"/>
       <c r="D55" s="261"/>
@@ -5953,7 +5962,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="309"/>
+      <c r="A56" s="313"/>
       <c r="B56" s="26"/>
       <c r="C56" s="261"/>
       <c r="D56" s="261"/>
@@ -5964,7 +5973,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="309"/>
+      <c r="A57" s="313"/>
       <c r="B57" s="26"/>
       <c r="C57" s="261"/>
       <c r="D57" s="261"/>
@@ -5975,7 +5984,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="309"/>
+      <c r="A58" s="313"/>
       <c r="B58" s="26"/>
       <c r="C58" s="261"/>
       <c r="D58" s="261"/>
@@ -5986,7 +5995,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="309"/>
+      <c r="A59" s="313"/>
       <c r="B59" s="26"/>
       <c r="C59" s="261"/>
       <c r="D59" s="261"/>
@@ -5997,7 +6006,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="309"/>
+      <c r="A60" s="313"/>
       <c r="B60" s="26"/>
       <c r="C60" s="261"/>
       <c r="D60" s="261"/>
@@ -6008,7 +6017,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="309"/>
+      <c r="A61" s="313"/>
       <c r="B61" s="26"/>
       <c r="C61" s="261"/>
       <c r="D61" s="261"/>
@@ -6019,7 +6028,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="309"/>
+      <c r="A62" s="313"/>
       <c r="B62" s="26"/>
       <c r="C62" s="261"/>
       <c r="D62" s="261"/>
@@ -6030,7 +6039,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="309"/>
+      <c r="A63" s="313"/>
       <c r="B63" s="26"/>
       <c r="C63" s="261"/>
       <c r="D63" s="261"/>
@@ -6041,7 +6050,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="309"/>
+      <c r="A64" s="313"/>
       <c r="B64" s="26"/>
       <c r="C64" s="261"/>
       <c r="D64" s="261"/>
@@ -6052,7 +6061,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="309"/>
+      <c r="A65" s="313"/>
       <c r="B65" s="26"/>
       <c r="C65" s="261"/>
       <c r="D65" s="261"/>
@@ -6063,7 +6072,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="309"/>
+      <c r="A66" s="313"/>
       <c r="B66" s="26"/>
       <c r="C66" s="261"/>
       <c r="D66" s="261"/>
@@ -6074,7 +6083,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="309"/>
+      <c r="A67" s="313"/>
       <c r="B67" s="26"/>
       <c r="C67" s="261"/>
       <c r="D67" s="261"/>
@@ -6085,7 +6094,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="309"/>
+      <c r="A68" s="313"/>
       <c r="B68" s="26"/>
       <c r="C68" s="261"/>
       <c r="D68" s="261"/>
@@ -6096,7 +6105,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="309"/>
+      <c r="A69" s="313"/>
       <c r="B69" s="26"/>
       <c r="C69" s="261"/>
       <c r="D69" s="261"/>
@@ -6107,7 +6116,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="309"/>
+      <c r="A70" s="313"/>
       <c r="B70" s="26"/>
       <c r="C70" s="261"/>
       <c r="D70" s="261"/>
@@ -6118,7 +6127,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="309"/>
+      <c r="A71" s="313"/>
       <c r="B71" s="26"/>
       <c r="C71" s="261"/>
       <c r="D71" s="261"/>
@@ -6129,7 +6138,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="309"/>
+      <c r="A72" s="313"/>
       <c r="B72" s="26"/>
       <c r="C72" s="261"/>
       <c r="D72" s="261"/>
@@ -6140,7 +6149,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="309"/>
+      <c r="A73" s="313"/>
       <c r="B73" s="26"/>
       <c r="C73" s="261"/>
       <c r="D73" s="261"/>
@@ -6151,7 +6160,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="309"/>
+      <c r="A74" s="313"/>
       <c r="B74" s="26"/>
       <c r="C74" s="261"/>
       <c r="D74" s="261"/>
@@ -6162,7 +6171,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="309"/>
+      <c r="A75" s="313"/>
       <c r="B75" s="26"/>
       <c r="C75" s="261"/>
       <c r="D75" s="261"/>
@@ -6173,7 +6182,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="309"/>
+      <c r="A76" s="313"/>
       <c r="B76" s="26"/>
       <c r="C76" s="261"/>
       <c r="D76" s="261"/>
@@ -6184,7 +6193,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="309"/>
+      <c r="A77" s="313"/>
       <c r="B77" s="26"/>
       <c r="C77" s="261"/>
       <c r="D77" s="261"/>
@@ -6195,7 +6204,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="309"/>
+      <c r="A78" s="313"/>
       <c r="B78" s="26"/>
       <c r="C78" s="261"/>
       <c r="D78" s="261"/>
@@ -6206,7 +6215,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="309"/>
+      <c r="A79" s="313"/>
       <c r="B79" s="26"/>
       <c r="C79" s="261"/>
       <c r="D79" s="261"/>
@@ -6218,7 +6227,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="309"/>
+      <c r="A80" s="313"/>
       <c r="B80" s="26"/>
       <c r="C80" s="261"/>
       <c r="D80" s="261"/>
@@ -6230,7 +6239,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="309"/>
+      <c r="A81" s="313"/>
       <c r="B81" s="26"/>
       <c r="C81" s="261"/>
       <c r="D81" s="261"/>
@@ -6242,7 +6251,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="309"/>
+      <c r="A82" s="313"/>
       <c r="B82" s="26"/>
       <c r="C82" s="261"/>
       <c r="D82" s="261"/>
@@ -6254,15 +6263,15 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="309"/>
+      <c r="A83" s="313"/>
       <c r="B83" s="295"/>
       <c r="C83" s="262">
         <f>SUM(C5:C72)</f>
-        <v>7338038</v>
+        <v>7838038</v>
       </c>
       <c r="D83" s="262">
         <f>SUM(D5:D77)</f>
-        <v>7270000</v>
+        <v>7770000</v>
       </c>
       <c r="E83" s="262">
         <f>E71</f>
@@ -6307,7 +6316,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -6322,67 +6331,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="314"/>
-      <c r="P1" s="314"/>
-      <c r="Q1" s="314"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="319" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="319"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="320" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="317"/>
-      <c r="N3" s="317"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="317"/>
-      <c r="Q3" s="318"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="321"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="322"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6391,52 +6400,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="319" t="s">
+      <c r="A4" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="321" t="s">
+      <c r="B4" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="310" t="s">
+      <c r="C4" s="314" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="310" t="s">
+      <c r="D4" s="314" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="314" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="310" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="310" t="s">
+      <c r="F4" s="314" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="310" t="s">
-        <v>251</v>
-      </c>
-      <c r="I4" s="310" t="s">
+      <c r="H4" s="314" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" s="314" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="310" t="s">
+      <c r="J4" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="310" t="s">
+      <c r="K4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="310" t="s">
+      <c r="L4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="310" t="s">
+      <c r="M4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="310" t="s">
+      <c r="N4" s="314" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="312" t="s">
+      <c r="O4" s="316" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="323" t="s">
+      <c r="P4" s="327" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6449,22 +6458,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="320"/>
-      <c r="B5" s="322"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="311"/>
-      <c r="G5" s="311"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="311"/>
-      <c r="J5" s="311"/>
-      <c r="K5" s="311"/>
-      <c r="L5" s="311"/>
-      <c r="M5" s="311"/>
-      <c r="N5" s="311"/>
-      <c r="O5" s="313"/>
-      <c r="P5" s="324"/>
+      <c r="A5" s="324"/>
+      <c r="B5" s="326"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="315"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="315"/>
+      <c r="N5" s="315"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="328"/>
       <c r="Q5" s="133" t="s">
         <v>45</v>
       </c>
@@ -6887,7 +6896,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="87">
         <v>1000</v>
@@ -6925,7 +6934,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="87">
         <v>500</v>
@@ -6969,7 +6978,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="87">
         <v>900</v>
@@ -7013,7 +7022,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="87">
         <v>1000</v>
@@ -7055,7 +7064,7 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B20" s="87">
         <v>500</v>
@@ -7095,7 +7104,7 @@
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B21" s="87">
         <v>900</v>
@@ -7129,7 +7138,7 @@
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="87">
         <v>500</v>
@@ -7167,7 +7176,7 @@
     </row>
     <row r="23" spans="1:23" s="95" customFormat="1">
       <c r="A23" s="79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B23" s="87">
         <v>1000</v>
@@ -7209,7 +7218,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B24" s="87">
         <v>1000</v>
@@ -7250,7 +7259,7 @@
     </row>
     <row r="25" spans="1:23" s="95" customFormat="1">
       <c r="A25" s="79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B25" s="87">
         <v>400</v>
@@ -7288,7 +7297,7 @@
     </row>
     <row r="26" spans="1:23" s="13" customFormat="1">
       <c r="A26" s="79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B26" s="87"/>
       <c r="C26" s="80"/>
@@ -7319,17 +7328,29 @@
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:23" s="13" customFormat="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="87">
+        <v>2000</v>
+      </c>
       <c r="C27" s="80"/>
       <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
+      <c r="E27" s="88">
+        <v>60</v>
+      </c>
       <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="G27" s="88">
+        <v>130</v>
+      </c>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
+      <c r="J27" s="88">
+        <v>30</v>
+      </c>
+      <c r="K27" s="88">
+        <v>400</v>
+      </c>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
       <c r="N27" s="119"/>
@@ -7337,7 +7358,7 @@
       <c r="P27" s="90"/>
       <c r="Q27" s="84">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2620</v>
       </c>
       <c r="R27" s="85"/>
       <c r="S27" s="6"/>
@@ -7565,7 +7586,7 @@
       </c>
       <c r="B37" s="105">
         <f>SUM(B6:B36)</f>
-        <v>15300</v>
+        <v>17300</v>
       </c>
       <c r="C37" s="106">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7577,7 +7598,7 @@
       </c>
       <c r="E37" s="106">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>4060</v>
       </c>
       <c r="F37" s="106">
         <f t="shared" si="1"/>
@@ -7585,7 +7606,7 @@
       </c>
       <c r="G37" s="106">
         <f>SUM(G6:G36)</f>
-        <v>12666</v>
+        <v>12796</v>
       </c>
       <c r="H37" s="106">
         <f t="shared" si="1"/>
@@ -7597,11 +7618,11 @@
       </c>
       <c r="J37" s="106">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="K37" s="106">
         <f t="shared" si="1"/>
-        <v>8160</v>
+        <v>8560</v>
       </c>
       <c r="L37" s="106">
         <f t="shared" si="1"/>
@@ -7625,7 +7646,7 @@
       </c>
       <c r="Q37" s="108">
         <f>SUM(Q6:Q36)</f>
-        <v>59435</v>
+        <v>62055</v>
       </c>
       <c r="S37" s="238" t="s">
         <v>50</v>
@@ -9629,8 +9650,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -9648,6 +9667,8 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9661,8 +9682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9689,14 +9710,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="331"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="335"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9790,14 +9811,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="336" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="334"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="338"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -9891,14 +9912,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="339" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="337"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="341"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -11206,7 +11227,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="53">
         <v>371370</v>
@@ -11316,7 +11337,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="189" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="53">
         <v>314680</v>
@@ -11426,7 +11447,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="189" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="53">
         <v>438860</v>
@@ -11536,7 +11557,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="189" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="53">
         <v>307830</v>
@@ -11646,7 +11667,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="189" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="53">
         <v>295410</v>
@@ -11756,7 +11777,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="189" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" s="53">
         <v>799880</v>
@@ -11866,7 +11887,7 @@
     </row>
     <row r="21" spans="1:97">
       <c r="A21" s="189" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="53">
         <v>1096820</v>
@@ -11976,7 +11997,7 @@
     </row>
     <row r="22" spans="1:97">
       <c r="A22" s="189" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B22" s="53">
         <v>462910</v>
@@ -12086,7 +12107,7 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="189" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B23" s="53">
         <v>265610</v>
@@ -12196,7 +12217,7 @@
     </row>
     <row r="24" spans="1:97">
       <c r="A24" s="189" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B24" s="53">
         <v>437560</v>
@@ -12306,7 +12327,7 @@
     </row>
     <row r="25" spans="1:97">
       <c r="A25" s="189" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B25" s="53">
         <v>456580</v>
@@ -12415,13 +12436,21 @@
       <c r="CS25" s="144"/>
     </row>
     <row r="26" spans="1:97">
-      <c r="A26" s="189"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="53"/>
+      <c r="A26" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="53">
+        <v>361840</v>
+      </c>
+      <c r="C26" s="56">
+        <v>411240</v>
+      </c>
+      <c r="D26" s="53">
+        <v>2620</v>
+      </c>
       <c r="E26" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>413860</v>
       </c>
       <c r="F26" s="244"/>
       <c r="G26" s="251"/>
@@ -13134,23 +13163,23 @@
       </c>
       <c r="B33" s="265">
         <f>SUM(B5:B32)</f>
-        <v>9249780</v>
+        <v>9611620</v>
       </c>
       <c r="C33" s="266">
         <f>SUM(C5:C32)</f>
-        <v>8400895</v>
+        <v>8812135</v>
       </c>
       <c r="D33" s="265">
         <f>SUM(D5:D32)</f>
-        <v>59445</v>
+        <v>62065</v>
       </c>
       <c r="E33" s="265">
         <f>SUM(E5:E32)</f>
-        <v>8460340</v>
+        <v>8874200</v>
       </c>
       <c r="F33" s="265">
         <f>B33-E33</f>
-        <v>789440</v>
+        <v>737420</v>
       </c>
       <c r="G33" s="267"/>
       <c r="H33" s="145"/>
@@ -13345,12 +13374,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="327" t="s">
+      <c r="B35" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
+      <c r="C35" s="331"/>
+      <c r="D35" s="331"/>
+      <c r="E35" s="331"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -13561,16 +13590,16 @@
         <v>100</v>
       </c>
       <c r="B37" s="290" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C37" s="134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D37" s="214">
         <v>3000</v>
       </c>
       <c r="E37" s="281" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F37" s="140"/>
       <c r="G37" s="145"/>
@@ -14117,7 +14146,7 @@
         <v>4000</v>
       </c>
       <c r="E42" s="182" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F42" s="144"/>
       <c r="G42" s="153" t="s">
@@ -14228,13 +14257,13 @@
         <v>400</v>
       </c>
       <c r="E43" s="183" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F43" s="140"/>
-      <c r="G43" s="328"/>
-      <c r="H43" s="328"/>
-      <c r="I43" s="328"/>
-      <c r="J43" s="328"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
+      <c r="I43" s="332"/>
+      <c r="J43" s="332"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -14556,10 +14585,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="217">
-        <v>490080</v>
+        <v>460080</v>
       </c>
       <c r="E46" s="275" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F46" s="137"/>
       <c r="G46" s="144"/>
@@ -14681,7 +14710,7 @@
         <v>227940</v>
       </c>
       <c r="E47" s="184" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F47" s="138"/>
       <c r="G47" s="144"/>
@@ -14803,7 +14832,7 @@
         <v>200000</v>
       </c>
       <c r="E48" s="186" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F48" s="138"/>
       <c r="G48" s="144"/>
@@ -14925,7 +14954,7 @@
         <v>200000</v>
       </c>
       <c r="E49" s="184" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F49" s="138"/>
       <c r="G49" s="144"/>
@@ -15044,10 +15073,10 @@
         <v>1733624262</v>
       </c>
       <c r="D50" s="218">
-        <v>152990</v>
+        <v>168390</v>
       </c>
       <c r="E50" s="184" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F50" s="138"/>
       <c r="G50" s="144"/>
@@ -15413,7 +15442,7 @@
         <v>53020</v>
       </c>
       <c r="E53" s="186" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F53" s="138"/>
       <c r="G53" s="144"/>
@@ -15532,10 +15561,10 @@
         <v>1749334499</v>
       </c>
       <c r="D54" s="218">
-        <v>108640</v>
+        <v>88640</v>
       </c>
       <c r="E54" s="184" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F54" s="138"/>
       <c r="G54" s="144"/>
@@ -17558,14 +17587,14 @@
         <v>158</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C71" s="123"/>
       <c r="D71" s="218">
         <v>20000</v>
       </c>
       <c r="E71" s="184" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F71" s="140"/>
       <c r="G71" s="144"/>
@@ -18362,10 +18391,10 @@
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="218">
-        <v>26680</v>
+        <v>36260</v>
       </c>
       <c r="E78" s="184" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F78" s="291"/>
       <c r="G78" s="144"/>
@@ -18483,7 +18512,7 @@
         <v>81530</v>
       </c>
       <c r="E79" s="186" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F79" s="138"/>
       <c r="G79" s="144"/>
@@ -18601,7 +18630,7 @@
         <v>4070</v>
       </c>
       <c r="E80" s="184" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F80" s="144"/>
       <c r="G80" s="144"/>
@@ -18831,17 +18860,17 @@
     </row>
     <row r="82" spans="1:97">
       <c r="A82" s="235" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C82" s="123"/>
       <c r="D82" s="218">
         <v>37400</v>
       </c>
       <c r="E82" s="186" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F82" s="138"/>
       <c r="G82" s="144"/>
@@ -18961,7 +18990,7 @@
         <v>118940</v>
       </c>
       <c r="E83" s="184" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F83" s="138"/>
       <c r="G83" s="144"/>
@@ -19436,14 +19465,14 @@
         <v>97</v>
       </c>
       <c r="B87" s="124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C87" s="123"/>
       <c r="D87" s="218">
         <v>68210</v>
       </c>
       <c r="E87" s="185" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F87" s="138"/>
       <c r="G87" s="144"/>
@@ -19553,17 +19582,17 @@
     </row>
     <row r="88" spans="1:97">
       <c r="A88" s="235" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="C88" s="123"/>
       <c r="D88" s="218">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="E88" s="186" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="F88" s="291"/>
       <c r="G88" s="144"/>
@@ -19676,7 +19705,7 @@
         <v>230</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89" s="56"/>
       <c r="D89" s="218">
@@ -19803,7 +19832,7 @@
         <v>25000</v>
       </c>
       <c r="E90" s="186" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F90" s="138"/>
       <c r="G90" s="144"/>
@@ -20025,7 +20054,7 @@
         <v>50000</v>
       </c>
       <c r="E92" s="186" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F92" s="291"/>
       <c r="G92" s="144"/>
@@ -20458,14 +20487,14 @@
         <v>143</v>
       </c>
       <c r="B96" s="58" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C96" s="237"/>
       <c r="D96" s="218">
         <v>44000</v>
       </c>
       <c r="E96" s="186" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F96" s="144"/>
       <c r="G96" s="144"/>
@@ -20574,10 +20603,10 @@
         <v>1309083520</v>
       </c>
       <c r="D97" s="218">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="E97" s="185" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F97" s="144"/>
       <c r="G97" s="144"/>
@@ -20677,7 +20706,7 @@
     </row>
     <row r="98" spans="1:97">
       <c r="A98" s="235" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B98" s="58" t="s">
         <v>187</v>
@@ -20687,7 +20716,7 @@
         <v>20000</v>
       </c>
       <c r="E98" s="184" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F98" s="144"/>
       <c r="G98" s="144"/>
@@ -20787,17 +20816,17 @@
     </row>
     <row r="99" spans="1:97">
       <c r="A99" s="235" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B99" s="58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C99" s="123"/>
       <c r="D99" s="218">
         <v>27000</v>
       </c>
       <c r="E99" s="184" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F99" s="144"/>
       <c r="G99" s="144"/>
@@ -20900,14 +20929,14 @@
         <v>98</v>
       </c>
       <c r="B100" s="58" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C100" s="123"/>
       <c r="D100" s="218">
         <v>15000</v>
       </c>
       <c r="E100" s="186" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F100" s="144"/>
       <c r="G100" s="144"/>
@@ -22884,14 +22913,14 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="325" t="s">
+      <c r="A119" s="329" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="326"/>
-      <c r="C119" s="338"/>
+      <c r="B119" s="330"/>
+      <c r="C119" s="342"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
-        <v>3153695</v>
+        <v>3101675</v>
       </c>
       <c r="E119" s="213"/>
       <c r="F119" s="144"/>
@@ -23091,14 +23120,14 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="325" t="s">
+      <c r="A121" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="326"/>
-      <c r="C121" s="326"/>
+      <c r="B121" s="330"/>
+      <c r="C121" s="330"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
-        <v>3153695</v>
+        <v>3101675</v>
       </c>
       <c r="E121" s="213"/>
       <c r="F121" s="144"/>
@@ -34333,7 +34362,7 @@
   <dimension ref="A1:Y222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34352,35 +34381,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="346" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="344"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="348"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="352" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="350"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="354"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="345" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="347"/>
+      <c r="A3" s="349" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="351"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34403,15 +34432,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="355" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="352"/>
+      <c r="B4" s="356"/>
       <c r="C4" s="272"/>
-      <c r="D4" s="353" t="s">
+      <c r="D4" s="357" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="354"/>
+      <c r="E4" s="358"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34445,7 +34474,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="254">
-        <v>7371693.9090714287</v>
+        <v>8461358.4966285713</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="269"/>
@@ -34473,7 +34502,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="258">
-        <v>236287.08677142864</v>
+        <v>246005.94432857161</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="39" t="s">
@@ -34511,7 +34540,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="287">
-        <v>42319.177699999884</v>
+        <v>1982.4477000012994</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="270"/>
@@ -34566,14 +34595,14 @@
         <v>14</v>
       </c>
       <c r="B9" s="258">
-        <v>49435</v>
+        <v>52055</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="254">
-        <v>3153695</v>
+        <v>3101675</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="116"/>
@@ -34605,10 +34634,10 @@
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E10" s="256">
-        <v>505226</v>
+        <v>-486143</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="246"/>
@@ -34637,7 +34666,7 @@
       </c>
       <c r="B11" s="298">
         <f>B6-B9-B10</f>
-        <v>186852.08677142864</v>
+        <v>193950.94432857161</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="305"/>
@@ -34730,7 +34759,7 @@
         <v>225</v>
       </c>
       <c r="E14" s="254">
-        <v>45880</v>
+        <v>47040</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="247"/>
@@ -34813,7 +34842,7 @@
       </c>
       <c r="B17" s="259">
         <f>B5+B11+B14+B15</f>
-        <v>11186852.086771429</v>
+        <v>11193950.944328573</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
@@ -34821,7 +34850,7 @@
       </c>
       <c r="E17" s="257">
         <f>SUM(E5:E16)</f>
-        <v>11186852.086771429</v>
+        <v>11193950.944328573</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="12"/>
@@ -34877,13 +34906,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="339" t="s">
+      <c r="A19" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="340"/>
-      <c r="C19" s="340"/>
-      <c r="D19" s="340"/>
-      <c r="E19" s="341"/>
+      <c r="B19" s="344"/>
+      <c r="C19" s="344"/>
+      <c r="D19" s="344"/>
+      <c r="E19" s="345"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34914,7 +34943,7 @@
       </c>
       <c r="C20" s="296"/>
       <c r="D20" s="277" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E20" s="278">
         <v>27000</v>
@@ -34977,7 +35006,7 @@
     </row>
     <row r="22" spans="1:25" ht="21.75">
       <c r="A22" s="260" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="127">
         <v>26680</v>
@@ -34987,7 +35016,7 @@
         <v>140</v>
       </c>
       <c r="E22" s="278">
-        <v>153000</v>
+        <v>168390</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="7"/>
@@ -35011,7 +35040,7 @@
     </row>
     <row r="23" spans="1:25" ht="21.75">
       <c r="A23" s="260" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B23" s="127">
         <v>17400</v>
@@ -35108,7 +35137,7 @@
     </row>
     <row r="26" spans="1:25" ht="21.75">
       <c r="A26" s="260" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B26" s="127">
         <v>37400</v>
@@ -35140,10 +35169,10 @@
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="1:25" ht="21.75">
-      <c r="A27" s="356" t="s">
+      <c r="A27" s="307" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="357">
+      <c r="B27" s="308">
         <v>22000</v>
       </c>
       <c r="C27" s="128"/>
@@ -35174,7 +35203,7 @@
     </row>
     <row r="28" spans="1:25" ht="21.75">
       <c r="A28" s="282" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" s="283">
         <v>44000</v>
@@ -35247,10 +35276,10 @@
       </c>
       <c r="C30" s="284"/>
       <c r="D30" s="285" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="E30" s="286">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="16"/>
       <c r="I30" s="7"/>
@@ -35273,17 +35302,17 @@
     </row>
     <row r="31" spans="1:25" ht="21.75">
       <c r="A31" s="282" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" s="283">
         <v>26000</v>
       </c>
       <c r="C31" s="284"/>
       <c r="D31" s="285" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="E31" s="286">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G31" s="16"/>
       <c r="I31" s="7"/>
@@ -35306,17 +35335,17 @@
     </row>
     <row r="32" spans="1:25" ht="21.75">
       <c r="A32" s="282" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B32" s="283">
         <v>118940</v>
       </c>
       <c r="C32" s="284"/>
       <c r="D32" s="285" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="E32" s="286">
-        <v>25000</v>
+        <v>79590</v>
       </c>
       <c r="G32" s="16"/>
       <c r="I32" s="7"/>
@@ -35346,10 +35375,10 @@
       </c>
       <c r="C33" s="284"/>
       <c r="D33" s="285" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E33" s="286">
-        <v>79590</v>
+        <v>20000</v>
       </c>
       <c r="G33" s="16"/>
       <c r="I33" s="7"/>
@@ -35372,17 +35401,17 @@
     </row>
     <row r="34" spans="1:25" ht="21.75">
       <c r="A34" s="282" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B34" s="283">
         <v>68210</v>
       </c>
       <c r="C34" s="284"/>
-      <c r="D34" s="355" t="s">
-        <v>233</v>
+      <c r="D34" s="306" t="s">
+        <v>216</v>
       </c>
       <c r="E34" s="286">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G34" s="16"/>
       <c r="I34" s="7"/>
@@ -35408,14 +35437,14 @@
         <v>147</v>
       </c>
       <c r="B35" s="283">
-        <v>325000</v>
+        <v>293000</v>
       </c>
       <c r="C35" s="284"/>
-      <c r="D35" s="355" t="s">
-        <v>216</v>
+      <c r="D35" s="306" t="s">
+        <v>272</v>
       </c>
       <c r="E35" s="286">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G35" s="16"/>
       <c r="I35" s="7"/>
@@ -35445,9 +35474,9 @@
       </c>
       <c r="C36" s="292"/>
       <c r="D36" s="299" t="s">
-        <v>240</v>
-      </c>
-      <c r="E36" s="358">
+        <v>239</v>
+      </c>
+      <c r="E36" s="309">
         <v>50000</v>
       </c>
       <c r="G36" s="16"/>
@@ -39193,8 +39222,8 @@
       <c r="Y222" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="D20:E36">
-    <sortCondition ref="D20"/>
+  <sortState ref="A21:B36">
+    <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A19:E19"/>
